--- a/admin/pages/User-Based/result/3_prediction_matrix.xlsx
+++ b/admin/pages/User-Based/result/3_prediction_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW39"/>
+  <dimension ref="A1:CW40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,7 +948,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -1076,7 +1076,9 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
+      <c r="BJ2" t="n">
+        <v>8</v>
+      </c>
       <c r="BK2" t="n">
         <v>4</v>
       </c>
@@ -1087,7 +1089,9 @@
       <c r="BN2" t="n">
         <v>173</v>
       </c>
-      <c r="BO2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>8</v>
+      </c>
       <c r="BP2" t="n">
         <v>28</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>2336</v>
       </c>
       <c r="V3" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="W3" t="n">
         <v>156</v>
@@ -1234,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -1247,7 +1251,7 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="AH3" t="n">
         <v>180</v>
@@ -1260,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
@@ -1327,7 +1331,7 @@
         <v>284</v>
       </c>
       <c r="BK3" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="BL3" t="n">
         <v>290</v>
@@ -1339,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="BO3" t="n">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="BP3" t="n">
         <v>22</v>
@@ -1578,9 +1582,11 @@
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
+      <c r="BJ4" t="n">
+        <v>8</v>
+      </c>
       <c r="BK4" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="n">
@@ -1588,7 +1594,7 @@
       </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="BP4" t="n">
         <v>84</v>
@@ -1830,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="BJ5" t="n">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="BK5" t="n">
         <v>18</v>
@@ -1845,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="BO5" t="n">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="BP5" t="n">
         <v>25</v>
@@ -2093,10 +2099,10 @@
         <v>12</v>
       </c>
       <c r="BJ6" t="n">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="BK6" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="BL6" t="n">
         <v>290</v>
@@ -2108,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="BO6" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="BP6" t="n">
         <v>17</v>
@@ -2201,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
         <v>228</v>
@@ -2438,7 +2444,7 @@
         <v>258</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
         <v>178</v>
@@ -2605,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="BJ8" t="n">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="BK8" t="n">
         <v>72</v>
@@ -2761,7 +2767,7 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="R9" t="n">
         <v>25</v>
@@ -2798,10 +2804,12 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
       <c r="AG9" t="n">
         <v>524</v>
       </c>
@@ -2810,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
@@ -2843,12 +2851,14 @@
       <c r="AU9" t="n">
         <v>17</v>
       </c>
-      <c r="AV9" t="inlineStr"/>
+      <c r="AV9" t="n">
+        <v>21</v>
+      </c>
       <c r="AW9" t="n">
         <v>32.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="n">
@@ -2858,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="BB9" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="BC9" t="n">
         <v>66</v>
@@ -2867,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="BE9" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BF9" t="n">
         <v>10</v>
@@ -2882,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="BJ9" t="n">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="BK9" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="BL9" t="n">
         <v>290</v>
@@ -2897,7 +2907,7 @@
         <v>8</v>
       </c>
       <c r="BO9" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="BP9" t="n">
         <v>20</v>
@@ -2971,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="CS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="n">
@@ -3000,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
@@ -3071,7 +3081,9 @@
       <c r="AF10" t="n">
         <v>16</v>
       </c>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>524</v>
+      </c>
       <c r="AH10" t="n">
         <v>180</v>
       </c>
@@ -3082,7 +3094,9 @@
       <c r="AK10" t="n">
         <v>8</v>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>86</v>
+      </c>
       <c r="AM10" t="n">
         <v>144</v>
       </c>
@@ -3101,7 +3115,9 @@
       <c r="AR10" t="n">
         <v>9</v>
       </c>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>5</v>
+      </c>
       <c r="AT10" t="n">
         <v>81</v>
       </c>
@@ -3142,7 +3158,9 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
+      <c r="BJ10" t="n">
+        <v>8</v>
+      </c>
       <c r="BK10" t="n">
         <v>72</v>
       </c>
@@ -3179,7 +3197,9 @@
         <v>9</v>
       </c>
       <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
+      <c r="BY10" t="n">
+        <v>35</v>
+      </c>
       <c r="BZ10" t="n">
         <v>15</v>
       </c>
@@ -3406,10 +3426,10 @@
         <v>12</v>
       </c>
       <c r="BJ11" t="n">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="BK11" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BL11" t="n">
         <v>290</v>
@@ -3421,7 +3441,7 @@
         <v>8</v>
       </c>
       <c r="BO11" t="n">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="BP11" t="n">
         <v>47</v>
@@ -3508,7 +3528,7 @@
         <v>1132</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>177</v>
@@ -3765,7 +3785,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -3911,9 +3931,11 @@
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v>8</v>
+      </c>
       <c r="BK13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="n">
@@ -4150,7 +4172,9 @@
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v>8</v>
+      </c>
       <c r="BK14" t="n">
         <v>79</v>
       </c>
@@ -4253,7 +4277,7 @@
         <v>780</v>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
         <v>177</v>
@@ -4514,7 +4538,7 @@
         <v>208</v>
       </c>
       <c r="C16" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
         <v>254</v>
@@ -5298,10 +5322,10 @@
         <v>12</v>
       </c>
       <c r="BJ19" t="n">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="BK19" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="BL19" t="n">
         <v>290</v>
@@ -5313,7 +5337,7 @@
         <v>8</v>
       </c>
       <c r="BO19" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="BP19" t="n">
         <v>17</v>
@@ -5744,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="BJ21" t="n">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="BK21" t="n">
         <v>19</v>
@@ -5759,7 +5783,7 @@
         <v>8</v>
       </c>
       <c r="BO21" t="n">
-        <v>626</v>
+        <v>317</v>
       </c>
       <c r="BP21" t="n">
         <v>16</v>
@@ -5838,7 +5862,7 @@
         <v>224</v>
       </c>
       <c r="C22" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
         <v>177</v>
@@ -6005,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="BJ22" t="n">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="BK22" t="n">
         <v>76</v>
@@ -6493,7 +6517,7 @@
         <v>548</v>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" t="n">
         <v>178</v>
@@ -7097,7 +7121,9 @@
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
+      <c r="BJ27" t="n">
+        <v>8</v>
+      </c>
       <c r="BK27" t="n">
         <v>34</v>
       </c>
@@ -7344,7 +7370,7 @@
         <v>81</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>26</v>
@@ -7389,7 +7415,7 @@
         <v>12</v>
       </c>
       <c r="BJ28" t="n">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="BK28" t="n">
         <v>80</v>
@@ -7404,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="BO28" t="n">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="BP28" t="n">
         <v>16</v>
@@ -7676,10 +7702,10 @@
         <v>12</v>
       </c>
       <c r="BJ29" t="n">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="BK29" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="BL29" t="n">
         <v>290</v>
@@ -7691,7 +7717,7 @@
         <v>8</v>
       </c>
       <c r="BO29" t="n">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="BP29" t="n">
         <v>18</v>
@@ -7784,7 +7810,7 @@
         <v>244</v>
       </c>
       <c r="C30" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" t="n">
         <v>8.5</v>
@@ -7957,7 +7983,7 @@
         <v>12</v>
       </c>
       <c r="BJ30" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="BK30" t="n">
         <v>51</v>
@@ -8256,10 +8282,10 @@
         <v>12</v>
       </c>
       <c r="BJ31" t="n">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="BK31" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BL31" t="n">
         <v>290</v>
@@ -8271,7 +8297,7 @@
         <v>8</v>
       </c>
       <c r="BO31" t="n">
-        <v>567</v>
+        <v>361</v>
       </c>
       <c r="BP31" t="n">
         <v>26</v>
@@ -8500,7 +8526,7 @@
         <v>81</v>
       </c>
       <c r="AU32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV32" t="n">
         <v>27</v>
@@ -9087,7 +9113,7 @@
         <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
         <v>172</v>
@@ -9103,13 +9129,13 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
         <v>7</v>
       </c>
       <c r="K35" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>17</v>
@@ -9129,7 +9155,7 @@
         <v>12</v>
       </c>
       <c r="S35" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
@@ -9142,10 +9168,10 @@
         <v>4</v>
       </c>
       <c r="X35" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Y35" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Z35" t="n">
         <v>4</v>
@@ -9157,7 +9183,7 @@
         <v>226</v>
       </c>
       <c r="AC35" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AD35" t="n">
         <v>230</v>
@@ -9187,7 +9213,7 @@
         <v>38</v>
       </c>
       <c r="AO35" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AP35" t="n">
         <v>13</v>
@@ -9239,9 +9265,11 @@
       <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
+      <c r="BJ35" t="n">
+        <v>8</v>
+      </c>
       <c r="BK35" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="n">
@@ -9249,10 +9277,10 @@
       </c>
       <c r="BN35" t="inlineStr"/>
       <c r="BO35" t="n">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="BP35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BQ35" t="n">
         <v>1207</v>
@@ -9268,7 +9296,7 @@
         <v>8</v>
       </c>
       <c r="BV35" t="n">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="BW35" t="n">
         <v>6</v>
@@ -9320,7 +9348,7 @@
         <v>9</v>
       </c>
       <c r="CV35" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="CW35" t="n">
         <v>20</v>
@@ -9328,381 +9356,293 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>108</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G36" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>106</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
+      </c>
       <c r="K36" t="n">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>5</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>8</v>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
+        <v>9</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
         <v>14</v>
       </c>
-      <c r="S36" t="n">
-        <v>72</v>
-      </c>
-      <c r="T36" t="n">
-        <v>87</v>
-      </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>115</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="n">
-        <v>37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
-        <v>18</v>
-      </c>
+      <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="n">
-        <v>24</v>
-      </c>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>326</v>
-      </c>
+      <c r="AM36" t="n">
+        <v>144</v>
+      </c>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>15</v>
-      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX36" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>28</v>
+      </c>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="n">
-        <v>140</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>94</v>
-      </c>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="n">
-        <v>8</v>
-      </c>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="n">
+        <v>82</v>
+      </c>
+      <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
       <c r="BH36" t="inlineStr"/>
       <c r="BI36" t="inlineStr"/>
       <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="n">
-        <v>80</v>
-      </c>
+      <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="n">
-        <v>40</v>
-      </c>
-      <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="n">
-        <v>16</v>
-      </c>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="n">
+        <v>91</v>
+      </c>
+      <c r="BP36" t="inlineStr"/>
       <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>10</v>
-      </c>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
       <c r="BT36" t="inlineStr"/>
-      <c r="BU36" t="n">
-        <v>8</v>
-      </c>
+      <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="n">
-        <v>332</v>
+        <v>59</v>
       </c>
       <c r="BW36" t="inlineStr"/>
       <c r="BX36" t="inlineStr"/>
       <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="n">
-        <v>16</v>
-      </c>
+      <c r="BZ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA36" t="inlineStr"/>
       <c r="CB36" t="inlineStr"/>
       <c r="CC36" t="inlineStr"/>
       <c r="CD36" t="inlineStr"/>
-      <c r="CE36" t="inlineStr"/>
+      <c r="CE36" t="n">
+        <v>10</v>
+      </c>
       <c r="CF36" t="inlineStr"/>
       <c r="CG36" t="inlineStr"/>
       <c r="CH36" t="inlineStr"/>
       <c r="CI36" t="inlineStr"/>
-      <c r="CJ36" t="n">
-        <v>4</v>
-      </c>
+      <c r="CJ36" t="inlineStr"/>
       <c r="CK36" t="inlineStr"/>
       <c r="CL36" t="inlineStr"/>
       <c r="CM36" t="inlineStr"/>
-      <c r="CN36" t="n">
-        <v>12</v>
-      </c>
+      <c r="CN36" t="inlineStr"/>
       <c r="CO36" t="inlineStr"/>
-      <c r="CP36" t="n">
-        <v>61</v>
-      </c>
+      <c r="CP36" t="inlineStr"/>
       <c r="CQ36" t="inlineStr"/>
       <c r="CR36" t="inlineStr"/>
       <c r="CS36" t="inlineStr"/>
-      <c r="CT36" t="inlineStr"/>
-      <c r="CU36" t="inlineStr"/>
+      <c r="CT36" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU36" t="n">
+        <v>8</v>
+      </c>
       <c r="CV36" t="n">
-        <v>310</v>
-      </c>
-      <c r="CW36" t="n">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="CW36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
-      </c>
-      <c r="D37" t="n">
-        <v>178</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>108</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>124</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>65</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>52</v>
-      </c>
-      <c r="L37" t="n">
-        <v>17</v>
-      </c>
-      <c r="M37" t="n">
-        <v>7</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>5</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="R37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S37" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T37" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="U37" t="n">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="V37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X37" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Y37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>227</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
         <v>18</v>
       </c>
-      <c r="AF37" t="n">
-        <v>16</v>
-      </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="n">
-        <v>180</v>
-      </c>
+      <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>8</v>
-      </c>
+      <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="n">
         <v>24</v>
       </c>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="n">
-        <v>144</v>
-      </c>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="n">
         <v>38</v>
       </c>
       <c r="AO37" t="n">
-        <v>308</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>13</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="n">
-        <v>9</v>
-      </c>
+      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="n">
         <v>81</v>
       </c>
       <c r="AU37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>788</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="BB37" t="n">
-        <v>163</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>73</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="n">
-        <v>19</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BE37" t="inlineStr"/>
       <c r="BF37" t="inlineStr"/>
-      <c r="BG37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>46</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>284</v>
-      </c>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="inlineStr"/>
       <c r="BN37" t="n">
-        <v>173</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>114</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="n">
-        <v>31</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>105</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="n">
         <v>5</v>
       </c>
@@ -9714,67 +9654,43 @@
         <v>8</v>
       </c>
       <c r="BV37" t="n">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c r="BW37" t="inlineStr"/>
-      <c r="BX37" t="n">
-        <v>27</v>
-      </c>
+      <c r="BX37" t="inlineStr"/>
       <c r="BY37" t="inlineStr"/>
-      <c r="BZ37" t="n">
-        <v>15</v>
-      </c>
-      <c r="CA37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="n">
+        <v>16</v>
+      </c>
       <c r="CB37" t="inlineStr"/>
-      <c r="CC37" t="n">
-        <v>8</v>
-      </c>
+      <c r="CC37" t="inlineStr"/>
       <c r="CD37" t="inlineStr"/>
-      <c r="CE37" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF37" t="n">
-        <v>25</v>
-      </c>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
       <c r="CG37" t="inlineStr"/>
       <c r="CH37" t="inlineStr"/>
       <c r="CI37" t="inlineStr"/>
       <c r="CJ37" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK37" t="n">
-        <v>16</v>
-      </c>
-      <c r="CL37" t="n">
-        <v>23</v>
-      </c>
-      <c r="CM37" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
       <c r="CN37" t="n">
         <v>12</v>
       </c>
-      <c r="CO37" t="n">
-        <v>24</v>
-      </c>
+      <c r="CO37" t="inlineStr"/>
       <c r="CP37" t="n">
-        <v>18</v>
-      </c>
-      <c r="CQ37" t="n">
-        <v>14</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="CQ37" t="inlineStr"/>
       <c r="CR37" t="inlineStr"/>
-      <c r="CS37" t="n">
-        <v>20</v>
-      </c>
-      <c r="CT37" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU37" t="n">
-        <v>9</v>
-      </c>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
       <c r="CV37" t="n">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="CW37" t="n">
         <v>20</v>
@@ -9782,13 +9698,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="n">
-        <v>2946</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" t="n">
         <v>178</v>
@@ -9797,22 +9713,22 @@
         <v>108</v>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G38" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="H38" t="n">
         <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L38" t="n">
         <v>17</v>
@@ -9826,10 +9742,10 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S38" t="n">
         <v>75</v>
@@ -9838,16 +9754,16 @@
         <v>14</v>
       </c>
       <c r="U38" t="n">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="V38" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W38" t="n">
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y38" t="n">
         <v>5</v>
@@ -9859,10 +9775,10 @@
         <v>10</v>
       </c>
       <c r="AB38" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="AD38" t="n">
         <v>227</v>
@@ -9892,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="AO38" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AP38" t="n">
         <v>13</v>
@@ -9912,10 +9828,10 @@
         <v>30</v>
       </c>
       <c r="AW38" t="n">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="AX38" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AY38" t="n">
         <v>8</v>
@@ -9930,7 +9846,7 @@
         <v>163</v>
       </c>
       <c r="BC38" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="BD38" t="n">
         <v>19</v>
@@ -9960,13 +9876,13 @@
         <v>173</v>
       </c>
       <c r="BO38" t="n">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="BP38" t="n">
         <v>31</v>
       </c>
       <c r="BQ38" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BR38" t="n">
         <v>5</v>
@@ -9979,7 +9895,7 @@
         <v>8</v>
       </c>
       <c r="BV38" t="n">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="BW38" t="inlineStr"/>
       <c r="BX38" t="n">
@@ -10032,12 +9948,14 @@
       <c r="CS38" t="n">
         <v>20</v>
       </c>
-      <c r="CT38" t="inlineStr"/>
+      <c r="CT38" t="n">
+        <v>4</v>
+      </c>
       <c r="CU38" t="n">
         <v>9</v>
       </c>
       <c r="CV38" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CW38" t="n">
         <v>20</v>
@@ -10045,16 +9963,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>2946</v>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E39" t="n">
         <v>108</v>
@@ -10063,19 +9981,19 @@
         <v>24</v>
       </c>
       <c r="G39" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="H39" t="n">
         <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L39" t="n">
         <v>17</v>
@@ -10089,10 +10007,10 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="R39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S39" t="n">
         <v>75</v>
@@ -10104,13 +10022,13 @@
         <v>8</v>
       </c>
       <c r="V39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W39" t="n">
         <v>6</v>
       </c>
       <c r="X39" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y39" t="n">
         <v>5</v>
@@ -10122,10 +10040,10 @@
         <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="AD39" t="n">
         <v>227</v>
@@ -10145,15 +10063,17 @@
         <v>8</v>
       </c>
       <c r="AK39" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>144</v>
+      </c>
       <c r="AN39" t="n">
         <v>38</v>
       </c>
       <c r="AO39" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AP39" t="n">
         <v>13</v>
@@ -10173,7 +10093,7 @@
         <v>30</v>
       </c>
       <c r="AW39" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="AX39" t="n">
         <v>6</v>
@@ -10191,10 +10111,10 @@
         <v>163</v>
       </c>
       <c r="BC39" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="BD39" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BE39" t="n">
         <v>8</v>
@@ -10213,23 +10133,21 @@
         <v>284</v>
       </c>
       <c r="BK39" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="BL39" t="inlineStr"/>
-      <c r="BM39" t="n">
-        <v>28</v>
-      </c>
+      <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="n">
         <v>173</v>
       </c>
       <c r="BO39" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BP39" t="n">
         <v>31</v>
       </c>
       <c r="BQ39" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BR39" t="n">
         <v>5</v>
@@ -10237,38 +10155,36 @@
       <c r="BS39" t="n">
         <v>10</v>
       </c>
-      <c r="BT39" t="n">
-        <v>8</v>
-      </c>
+      <c r="BT39" t="inlineStr"/>
       <c r="BU39" t="n">
         <v>8</v>
       </c>
       <c r="BV39" t="n">
-        <v>332</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>9</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="BW39" t="inlineStr"/>
       <c r="BX39" t="n">
         <v>27</v>
       </c>
       <c r="BY39" t="inlineStr"/>
-      <c r="BZ39" t="inlineStr"/>
+      <c r="BZ39" t="n">
+        <v>15</v>
+      </c>
       <c r="CA39" t="inlineStr"/>
       <c r="CB39" t="inlineStr"/>
       <c r="CC39" t="n">
         <v>8</v>
       </c>
       <c r="CD39" t="inlineStr"/>
-      <c r="CE39" t="inlineStr"/>
+      <c r="CE39" t="n">
+        <v>10</v>
+      </c>
       <c r="CF39" t="n">
         <v>25</v>
       </c>
       <c r="CG39" t="inlineStr"/>
       <c r="CH39" t="inlineStr"/>
-      <c r="CI39" t="n">
-        <v>8</v>
-      </c>
+      <c r="CI39" t="inlineStr"/>
       <c r="CJ39" t="n">
         <v>5</v>
       </c>
@@ -10291,20 +10207,285 @@
         <v>18</v>
       </c>
       <c r="CQ39" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="CR39" t="inlineStr"/>
       <c r="CS39" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="CT39" t="inlineStr"/>
       <c r="CU39" t="n">
         <v>9</v>
       </c>
       <c r="CV39" t="n">
+        <v>31</v>
+      </c>
+      <c r="CW39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76</v>
+      </c>
+      <c r="D40" t="n">
+        <v>177</v>
+      </c>
+      <c r="E40" t="n">
+        <v>108</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24</v>
+      </c>
+      <c r="G40" t="n">
+        <v>24</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>38</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17</v>
+      </c>
+      <c r="M40" t="n">
+        <v>7</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>5</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>66</v>
+      </c>
+      <c r="R40" t="n">
+        <v>17</v>
+      </c>
+      <c r="S40" t="n">
+        <v>75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>8</v>
+      </c>
+      <c r="V40" t="n">
+        <v>20</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>152</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>227</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="n">
+        <v>180</v>
+      </c>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>306</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>788</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>95</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>163</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>46</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>284</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="n">
+        <v>28</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>173</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>162</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>31</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>106</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>332</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>27</v>
+      </c>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK40" t="n">
+        <v>16</v>
+      </c>
+      <c r="CL40" t="n">
+        <v>23</v>
+      </c>
+      <c r="CM40" t="n">
+        <v>5</v>
+      </c>
+      <c r="CN40" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>24</v>
+      </c>
+      <c r="CP40" t="n">
+        <v>18</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>19</v>
+      </c>
+      <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT40" t="inlineStr"/>
+      <c r="CU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="CV40" t="n">
         <v>34</v>
       </c>
-      <c r="CW39" t="n">
+      <c r="CW40" t="n">
         <v>20</v>
       </c>
     </row>
